--- a/Cadastros Auto Nextt limpa.xlsx
+++ b/Cadastros Auto Nextt limpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Desktop\dev\automacao-nextt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2039B74-E0A8-4EB5-ABBA-9312FAFDB495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BD050B-112B-404A-B833-25F09FD3B81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="764" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nextt" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Cadastre vários itens simultaneamente</t>
   </si>
@@ -157,9 +157,6 @@
     <t xml:space="preserve">Cadastros Básicos &gt; Marca </t>
   </si>
   <si>
-    <t xml:space="preserve">Máximo 50 caracteres. </t>
-  </si>
-  <si>
     <t>Para cadastro de 'Marca' em lotes, clique aqui</t>
   </si>
   <si>
@@ -167,19 +164,6 @@
   </si>
   <si>
     <t>Aviso: Os valores disponíveis para "classificação fiscal" são importados automaticamente do banco de dados do Matriz.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Máximo 50 caracteres. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dica: A "descrição reduzida" geralmente inclui apenas uma ou duas palavras-chave relacionadas à "descrição".</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Cadastro de Produtos </t>
@@ -218,9 +202,6 @@
     <t>Aviso: Os valores disponíveis para "segmento" são importados automaticamente do banco de dados do Matriz.</t>
   </si>
   <si>
-    <t>6 - CARTAO PRESENTE</t>
-  </si>
-  <si>
     <t>Para cadastro de 'Seção' em lotes, clique aqui</t>
   </si>
   <si>
@@ -233,25 +214,6 @@
     <t>Tamanho</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Máximo 50 caracteres.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Dica: Se a sua descrição incluir os mesmos valores de "seção" e/ou "espécie", remova as palavras repetidas para evitar duplicidade na impressão da etiqueta.</t>
-    </r>
-  </si>
-  <si>
     <t>Operador &gt; Cadastro de Segmento</t>
   </si>
   <si>
@@ -262,6 +224,48 @@
   </si>
   <si>
     <t>CNPJ</t>
+  </si>
+  <si>
+    <t>Máximo 50 caracteres. As descrições de "seção" serão consideradas válidas apenas se forem diferentes das já existentes no banco de dados do Matriz</t>
+  </si>
+  <si>
+    <t>Máximo 50 caracteres. As descrições de "segmento" serão consideradas válidas apenas se forem diferentes das já existentes no banco de dados do Matriz.</t>
+  </si>
+  <si>
+    <t>Máximo 50 caracteres. As descrições de "espécie" serão consideradas válidas apenas se forem diferentes das já existentes no banco de dados do Matriz</t>
+  </si>
+  <si>
+    <t>Máximo 50 caracteres. As descrições de "marcas" serão consideradas válidas apenas se forem diferentes das já existentes no banco de dados do Matriz</t>
+  </si>
+  <si>
+    <t>Máximo 50 caracteres. Dica: Se a sua descrição incluir os mesmos valores de "seção" e/ou "espécie", remova as palavras repetidas para evitar duplicidade na impressão da etiqueta.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Máximo 50 caracteres.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dica: A "descrição reduzida" geralmente inclui apenas uma ou duas palavras-chave relacionadas à "descrição".</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1040,23 +1044,17 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1081,6 +1079,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1555,9 +1559,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:M10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1623,70 +1625,70 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
     </row>
     <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
     </row>
     <row r="6" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="68" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1696,11 +1698,11 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1713,13 +1715,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1732,34 +1734,34 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1775,8 +1777,8 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1789,18 +1791,18 @@
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="69"/>
+      <c r="B13" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="68"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1810,11 +1812,11 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1827,60 +1829,60 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="67"/>
+      <c r="B15" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="81"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="67"/>
+      <c r="B16" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="81"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="67"/>
+      <c r="B17" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="81"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
@@ -1889,15 +1891,15 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
@@ -1906,15 +1908,15 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
@@ -1923,8 +1925,8 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1940,18 +1942,18 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1959,8 +1961,8 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1976,10 +1978,10 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -1995,8 +1997,8 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2012,17 +2014,17 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
+      <c r="H25" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
@@ -2031,15 +2033,15 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="81"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="79"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
@@ -2048,15 +2050,15 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="81"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="79"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
@@ -2065,8 +2067,8 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2082,8 +2084,8 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2099,8 +2101,8 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2116,8 +2118,8 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2133,8 +2135,8 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2150,8 +2152,8 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2167,8 +2169,8 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2184,8 +2186,8 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2201,8 +2203,8 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2218,8 +2220,8 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2235,8 +2237,8 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2252,8 +2254,8 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2269,8 +2271,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2286,8 +2288,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2303,8 +2305,8 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -2320,8 +2322,8 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -2337,8 +2339,8 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -2354,8 +2356,8 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2371,8 +2373,8 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2388,8 +2390,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2405,8 +2407,8 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2422,8 +2424,8 @@
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -2439,8 +2441,8 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -2454,6 +2456,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G15:M19"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="B9:C9"/>
@@ -2470,11 +2477,6 @@
     <mergeCell ref="H25:M27"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G15:M19"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" location="'Cadastro de Produtos'!A1" display="Cadastro de Produtos" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2494,7 +2496,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:AF5946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
@@ -2529,9 +2531,9 @@
       <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2566,11 +2568,11 @@
     </row>
     <row r="2" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2649,10 +2651,10 @@
         <v>26</v>
       </c>
       <c r="Q3" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -2749,10 +2751,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>31</v>
@@ -2766,10 +2768,10 @@
         <v>33</v>
       </c>
       <c r="J5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>39</v>
-      </c>
-      <c r="K5" s="42" t="s">
-        <v>40</v>
       </c>
       <c r="L5" s="40"/>
       <c r="M5" s="41"/>
@@ -2786,25 +2788,25 @@
       <c r="V5" s="41"/>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
-      <c r="Y5" s="69"/>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="69"/>
-      <c r="AB5" s="69"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="44"/>
       <c r="E6" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
@@ -2825,13 +2827,13 @@
       <c r="V6" s="47"/>
       <c r="W6" s="44"/>
       <c r="X6" s="47"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="69"/>
-      <c r="AC6" s="69"/>
-      <c r="AD6" s="69"/>
-      <c r="AE6" s="69"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="68"/>
+      <c r="AD6" s="68"/>
+      <c r="AE6" s="68"/>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
@@ -19128,7 +19130,7 @@
       <formula1>0</formula1>
       <formula2>999999</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F201" xr:uid="{D9302706-5908-4B50-A07C-7ECE10422565}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F201" xr:uid="{D9302706-5908-4B50-A07C-7ECE10422565}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
@@ -19148,6 +19150,18 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93DE889E-8928-46D7-B2DE-AAC6AD1BDE1D}">
+          <x14:formula1>
+            <xm:f>ISERROR(MATCH($F7,'Dados Consolidados'!$AU$1:$AU$11,0))</xm:f>
+          </x14:formula1>
+          <xm:sqref>F7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -19256,7 +19270,7 @@
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -19418,7 +19432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19476,8 +19490,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -19487,11 +19501,12 @@
   <mergeCells count="1">
     <mergeCell ref="B1:B1048576"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="O texto inserido excede o tamanho máximo permitido para esta célula." sqref="A6:A1048576" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="O texto inserido excede o tamanho máximo permitido para esta célula." sqref="A6" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>1</formula1>
       <formula2>50</formula2>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Erro" error="O texto inserido excede o tamanho máximo permitido para esta célula." sqref="A7:A1048576" xr:uid="{6E53B40A-78BA-49E3-9303-A818FBDDC2AB}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -19517,7 +19532,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" s="51"/>
       <c r="D1" s="51"/>
@@ -19533,7 +19548,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
@@ -19562,8 +19577,8 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -19571,18 +19586,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E684CCD4-BA37-4B19-8C3B-506CFF099B6A}">
-          <x14:formula1>
-            <xm:f>ISERROR(MATCH($A7,'Dados Consolidados'!$AR$1:$AR$11,0))</xm:f>
-          </x14:formula1>
-          <xm:sqref>A8:A200 A7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -19596,7 +19599,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19608,10 +19611,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="93"/>
       <c r="C1" s="100" t="s">
         <v>10</v>
       </c>
@@ -19628,10 +19631,10 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="95"/>
       <c r="C2" s="100"/>
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
@@ -19650,10 +19653,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19672,11 +19675,11 @@
       <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:15" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="101"/>
     </row>
@@ -20850,35 +20853,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A200" xr:uid="{E4034C0C-F8E8-4159-B282-BFA0255D345A}">
-      <formula1>0</formula1>
-      <formula2>50</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{77472234-D76E-4F24-890B-D1E3A3DD954B}">
-          <x14:formula1>
-            <xm:f>'Dados Consolidados'!$AS$2:$AS$10000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8:B200</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44BB6AA8-E6D1-416B-A366-DCAF1C8BCA1B}">
-          <x14:formula1>
-            <xm:f>'Dados Consolidados'!$AR$2:$AR$10000</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -20887,12 +20868,12 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
-  <dimension ref="A1:N1048570"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20904,10 +20885,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="93"/>
       <c r="C1" s="100" t="s">
         <v>10</v>
       </c>
@@ -20923,10 +20904,10 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="6"/>
+      <c r="A2" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="95"/>
       <c r="C2" s="100"/>
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
@@ -20965,8 +20946,8 @@
       <c r="F4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>37</v>
+      <c r="A5" s="22" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>29</v>
@@ -22142,36 +22123,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1048570" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B1048570" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C200" xr:uid="{8771EE18-3FA3-4C4B-BC9E-74C2FA28D036}"/>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A200" xr:uid="{C9D53218-132A-4C0D-876B-BC5AF262BA2A}">
-      <formula1>0</formula1>
-      <formula2>50</formula2>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A2C2444-BFA2-4265-B94F-701AC4AC1A58}">
-          <x14:formula1>
-            <xm:f>'Dados Consolidados'!$A$2:$A$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>B8:B1048576 B7</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -22182,9 +22144,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Cadastros Auto Nextt limpa.xlsx
+++ b/Cadastros Auto Nextt limpa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Desktop\dev\automacao-nextt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\dev\automacao-nextt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BD050B-112B-404A-B833-25F09FD3B81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B05C3A-F29A-4709-87A1-A8E724D756A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="764" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nextt" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Cadastro de Espécie" sheetId="7" r:id="rId7"/>
     <sheet name="Dados Consolidados" sheetId="5" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Seção1">#REF!</definedName>
     <definedName name="Seção2">#REF!</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
   <si>
     <t>Cadastre vários itens simultaneamente</t>
   </si>
@@ -221,9 +224,6 @@
   </si>
   <si>
     <t>Este tipo de cadastro funciona de maneira similar à Matriz: você pode selecionar as informações diretamente de nossos bancos de dados e cadastrar seus produtos, pedidos, marcas e muito mais de forma automática. O melhor de tudo é que esse processo pode ser realizado em lotes, tornando tudo mais ágil e eficiente.</t>
-  </si>
-  <si>
-    <t>CNPJ</t>
   </si>
   <si>
     <t>Máximo 50 caracteres. As descrições de "seção" serão consideradas válidas apenas se forem diferentes das já existentes no banco de dados do Matriz</t>
@@ -1044,17 +1044,23 @@
     <xf numFmtId="0" fontId="15" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1079,12 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1155,108 +1155,309 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="495300" cy="495300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png" title="Imagen">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3BD39E7-863C-4BAC-94FD-AF6BAE1CBBB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5391150" y="1771650"/>
-          <a:ext cx="495300" cy="495300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>494826</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Nextt Soluções">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A36CE6C-B1A7-D444-FDCE-C0A971006217}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="285750" y="76200"/>
-          <a:ext cx="1428276" cy="685799"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>12544425</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Button 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5A55E6-8B18-EF0A-7C63-4438F6FAD850}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Cadastrar</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C958E15E-5A00-ABE4-1ED5-ABE98EEDB277}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Cadastrar</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7969BF53-F9A7-9AA8-9427-DAC5761D144F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Cadastrar</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:cs typeface="Calibri"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Nextt"/>
+      <sheetName val="Cadastro de Produtos"/>
+      <sheetName val="Cadastro de Pedidos"/>
+      <sheetName val="Cadastro de Marcas"/>
+      <sheetName val="Cadastro de Segmento"/>
+      <sheetName val="Cadastro de Seção"/>
+      <sheetName val="Cadastro de Espécie"/>
+      <sheetName val="Dados Consolidados"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="ExecutarCadastroEspecie"/>
+      <definedName name="ExecutarCadastroSecao"/>
+      <definedName name="ExecutarCadastroSegmento"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1559,7 +1760,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1625,70 +1828,70 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
     </row>
     <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="71" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1698,11 +1901,11 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1715,13 +1918,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1734,34 +1937,34 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="75" t="s">
+      <c r="H10" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1777,8 +1980,8 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1791,18 +1994,18 @@
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="71" t="s">
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1812,11 +2015,11 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -1829,60 +2032,60 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="81"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="82" t="s">
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="81"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="81"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
@@ -1891,15 +2094,15 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
@@ -1908,15 +2111,15 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
@@ -1925,8 +2128,8 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -1942,18 +2145,18 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="76" t="s">
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1961,8 +2164,8 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -1978,8 +2181,8 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
       <c r="G23" s="32" t="s">
         <v>42</v>
       </c>
@@ -1997,8 +2200,8 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2014,17 +2217,17 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="78" t="s">
+      <c r="H25" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
@@ -2033,15 +2236,15 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="79"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
@@ -2050,15 +2253,15 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="79"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="81"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
@@ -2067,8 +2270,8 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2084,8 +2287,8 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2101,8 +2304,8 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2118,8 +2321,8 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2135,8 +2338,8 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2152,8 +2355,8 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2169,8 +2372,8 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2186,8 +2389,8 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2203,8 +2406,8 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2220,8 +2423,8 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2237,8 +2440,8 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2254,8 +2457,8 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2271,8 +2474,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2288,8 +2491,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2305,8 +2508,8 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -2322,8 +2525,8 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -2339,8 +2542,8 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -2356,8 +2559,8 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2373,8 +2576,8 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2390,8 +2593,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2407,8 +2610,8 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2424,8 +2627,8 @@
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -2441,8 +2644,8 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -2456,11 +2659,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G15:M19"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A5:O5"/>
     <mergeCell ref="A4:O4"/>
     <mergeCell ref="B9:C9"/>
@@ -2477,6 +2675,11 @@
     <mergeCell ref="H25:M27"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G15:M19"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" location="'Cadastro de Produtos'!A1" display="Cadastro de Produtos" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2487,7 +2690,6 @@
     <hyperlink ref="B15:C15" location="'Cadastro de Segmento'!A1" display="Cadastro de Segmento" xr:uid="{9362759C-8C78-4D34-ADEA-62AC0184B4EF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2531,9 +2733,9 @@
       <c r="A1" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2570,9 +2772,9 @@
       <c r="A2" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2751,10 +2953,10 @@
         <v>30</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>65</v>
       </c>
       <c r="E5" s="40" t="s">
         <v>31</v>
@@ -2788,13 +2990,13 @@
       <c r="V5" s="41"/>
       <c r="W5" s="41"/>
       <c r="X5" s="41"/>
-      <c r="Y5" s="68"/>
-      <c r="Z5" s="68"/>
-      <c r="AA5" s="68"/>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68"/>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="68"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="64" t="s">
@@ -2827,13 +3029,13 @@
       <c r="V6" s="47"/>
       <c r="W6" s="44"/>
       <c r="X6" s="47"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="68"/>
-      <c r="AE6" s="68"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
+      <c r="AE6" s="69"/>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55"/>
@@ -19172,7 +19374,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19269,9 +19471,7 @@
       <c r="AD2" s="90"/>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>59</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -19491,7 +19691,7 @@
     </row>
     <row r="5" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -19513,15 +19713,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2666A-C429-48B8-AED9-D06D5D5C6D1B}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA2666A-C429-48B8-AED9-D06D5D5C6D1B}">
+  <sheetPr codeName="Planilha6">
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19578,7 +19778,7 @@
     </row>
     <row r="5" spans="1:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -19586,12 +19786,42 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId3" name="Button 2">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ExecutarCadastroSegmento">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>12544425</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD76123E-B956-4C86-9056-36B82AC4C9D1}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD76123E-B956-4C86-9056-36B82AC4C9D1}">
+  <sheetPr codeName="Planilha7">
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
   <dimension ref="A1:O200"/>
@@ -19599,14 +19829,14 @@
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="176.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19676,7 +19906,7 @@
     </row>
     <row r="5" spans="1:15" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>51</v>
@@ -19690,1165 +19920,1165 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B7, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B7, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B8, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B8, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B9, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B9, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C10" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B10, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B10, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C11" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B11, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B11, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B12, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B12, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C13" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B13, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B13, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B14, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B14, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C15" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B15, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B15, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C16" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B16, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B16, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B17, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B17, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B18, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B18, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B19, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B19, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B20, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B20, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B21, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B21, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B22, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B22, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B23, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B23, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B24, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B24, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B25, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B25, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B26, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B26, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B27, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B27, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B28, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B28, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B29, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B29, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B30, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B30, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B31, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B31, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B32, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B32, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B33, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B33, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B34, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B34, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B35, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B35, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B36, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B36, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B37, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B37, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B38, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B38, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B39, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B39, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B40, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B40, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B41, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B41, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B42, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B42, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B43, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B43, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B44, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B44, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B45, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B45, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B46, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B46, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B47, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B47, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B48, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B48, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B49, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B49, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B50, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B50, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B51, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B51, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B52, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B52, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B53, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B53, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B54, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B54, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B55, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B55, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B56, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B56, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B57, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B57, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B58, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B58, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B59, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B59, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B60, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B60, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B61, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B61, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B62, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B62, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B63, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B63, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B64, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B64, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B65, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B65, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B66, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B66, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B67, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B67, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B68, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B68, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B69, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B69, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B70, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B70, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B71, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B71, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B72, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B72, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B73, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B73, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B74, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B74, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B75, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B75, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B76, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B76, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B77, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B77, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B78, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B78, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B79, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B79, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B80, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B80, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B81, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B81, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B82, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B82, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B83, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B83, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B84, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B84, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B85, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B85, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B86, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B86, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B87, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B87, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B88, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B88, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B89, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B89, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B90, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B90, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B91, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B91, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B92, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B92, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B93, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B93, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B94, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B94, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B95, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B95, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B96, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B96, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B97, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B97, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B98, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B98, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B99, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B99, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B100, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B100, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B101, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B101, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B102, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B102, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B103, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B103, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B104, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B104, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B105, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B105, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B106, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B106, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B107, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B107, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B108, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B108, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B109, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B109, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B110, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B110, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B111, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B111, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B112, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B112, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B113, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B113, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B114, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B114, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B115, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B115, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B116, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B116, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B117, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B117, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B118, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B118, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B119, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B119, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B120, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B120, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B121, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B121, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B122, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B122, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B123, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B123, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B124, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B124, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B125, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B125, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B126, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B126, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B127, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B127, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B128, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B128, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B129, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B129, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B130, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B130, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B131, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B131, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B132, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B132, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B133, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B133, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B134, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B134, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B135, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B135, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B136, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B136, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B137, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B137, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B138, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B138, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B139, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B139, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B140, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B140, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B141, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B141, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B142, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B142, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B143, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B143, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B144, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B144, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B145, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B145, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B146, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B146, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B147, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B147, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B148, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B148, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B149, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B149, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B150, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B150, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B151, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B151, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B152, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B152, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B153, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B153, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B154, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B154, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B155, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B155, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B156, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B156, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B157, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B157, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B158, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B158, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B159, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B159, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B160, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B160, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B161, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B161, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B162, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B162, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B163, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B163, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B164, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B164, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B165, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B165, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B166, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B166, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B167, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B167, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B168, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B168, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B169, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B169, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B170, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B170, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B171, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B171, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B172, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B172, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B173, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B173, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B174, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B174, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B175, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B175, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B176, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B176, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B177, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B177, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B178, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B178, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B179, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B179, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B180, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B180, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B181, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B181, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B182, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B182, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B183, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B183, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B184, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B184, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B185, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B185, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B186, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B186, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B187, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B187, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B188, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B188, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B189, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B189, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B190, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B190, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B191, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B191, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B192, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B192, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B193, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B193, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B194, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B194, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B195, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B195, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B196, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B196, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B197, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B197, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B198, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B198, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B199, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B199, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$AS$2:$AS$1000000, MATCH(B200, 'Dados Consolidados'!$AR$2:$AR$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$AS$1:$AS$1000000, MATCH(B200, 'Dados Consolidados'!$AR$1:$AR$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -20860,12 +21090,42 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ExecutarCadastroSecao">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EED632-601C-4DD3-90D3-2AD92BB8E994}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EED632-601C-4DD3-90D3-2AD92BB8E994}">
+  <sheetPr codeName="Planilha8">
     <tabColor theme="2" tint="-0.749992370372631"/>
   </sheetPr>
   <dimension ref="A1:N200"/>
@@ -20873,14 +21133,14 @@
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="176.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -20947,7 +21207,7 @@
     </row>
     <row r="5" spans="1:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>29</v>
@@ -20961,1165 +21221,1165 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B7, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B7, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B8, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B8, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B9, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B9, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C10" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B10, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B10, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B11, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B11, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C12" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B12, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B12, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C13" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B13, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B13, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B14, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B14, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B15, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B15, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C16" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B16, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B16, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B17, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B17, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B18, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B18, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B19, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B19, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B20, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B20, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B21, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B21, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B22, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B22, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B23, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B23, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B24, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B24, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B25, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B25, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B26, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B26, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B27, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B27, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B28, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B28, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B29, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B29, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B30, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B30, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B31, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B31, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B32, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B32, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B33, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B33, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B34, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B34, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B35, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B35, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B36, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B36, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B37, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B37, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B38, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B38, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B39, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B39, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B40, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B40, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B41, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B41, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B42, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B42, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B43, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B43, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B44, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B44, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B45, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B45, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B46, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B46, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B47, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B47, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B48, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B48, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B49, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B49, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B50, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B50, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B51, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B51, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B52, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B52, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B53, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B53, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B54, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B54, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B55, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B55, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B56, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B56, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B57, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B57, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B58, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B58, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B59, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B59, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B60, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B60, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B61, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B61, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B62, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B62, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B63, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B63, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B64, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B64, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B65, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B65, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B66, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B66, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B67, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B67, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B68, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B68, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B69, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B69, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B70, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B70, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B71, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B71, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B72, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B72, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B73, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B73, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B74, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B74, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B75, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B75, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B76, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B76, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B77, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B77, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B78, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B78, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B79, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B79, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B80, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B80, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B81, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B81, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B82, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B82, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C83" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B83, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B83, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C84" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B84, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B84, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B85, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B85, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C86" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B86, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B86, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B87, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B87, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B88, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B88, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C89" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B89, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B89, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B90, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B90, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C91" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B91, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B91, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C92" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B92, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B92, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C93" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B93, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B93, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C94" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B94, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B94, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C95" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B95, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B95, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C96" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B96, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B96, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C97" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B97, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B97, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C98" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B98, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B98, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C99" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B99, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B99, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C100" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B100, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B100, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C101" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B101, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B101, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B102, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B102, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C103" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B103, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B103, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C104" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B104, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B104, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C105" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B105, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B105, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C106" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B106, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B106, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C107" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B107, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B107, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C108" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B108, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B108, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C109" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B109, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B109, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C110" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B110, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B110, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C111" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B111, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B111, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C112" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B112, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B112, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C113" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B113, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B113, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C114" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B114, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B114, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C115" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B115, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B115, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B116, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B116, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C117" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B117, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B117, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C118" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B118, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B118, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C119" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B119, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B119, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B120, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B120, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C121" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B121, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B121, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C122" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B122, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B122, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C123" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B123, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B123, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B124, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B124, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C125" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B125, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B125, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C126" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B126, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B126, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C127" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B127, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B127, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B128, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B128, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C129" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B129, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B129, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C130" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B130, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B130, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C131" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B131, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B131, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B132, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B132, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C133" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B133, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B133, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C134" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B134, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B134, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C135" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B135, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B135, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C136" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B136, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B136, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C137" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B137, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B137, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B138, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B138, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C139" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B139, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B139, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C140" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B140, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B140, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C141" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B141, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B141, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B142, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B142, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C143" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B143, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B143, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C144" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B144, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B144, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B145, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B145, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B146, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B146, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B147, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B147, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B148, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B148, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C149" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B149, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B149, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C150" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B150, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B150, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C151" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B151, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B151, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C152" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B152, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B152, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C153" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B153, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B153, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C154" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B154, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B154, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C155" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B155, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B155, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C156" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B156, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B156, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C157" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B157, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B157, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C158" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B158, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B158, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C159" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B159, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B159, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C160" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B160, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B160, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C161" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B161, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B161, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C162" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B162, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B162, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C163" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B163, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B163, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C164" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B164, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B164, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C165" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B165, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B165, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C166" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B166, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B166, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C167" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B167, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B167, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C168" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B168, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B168, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C169" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B169, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B169, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C170" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B170, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B170, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C171" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B171, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B171, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C172" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B172, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B172, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C173" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B173, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B173, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C174" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B174, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B174, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C175" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B175, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B175, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C176" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B176, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B176, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C177" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B177, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B177, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C178" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B178, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B178, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C179" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B179, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B179, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C180" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B180, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B180, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C181" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B181, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B181, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C182" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B182, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B182, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C183" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B183, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B183, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C184" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B184, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B184, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C185" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B185, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B185, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C186" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B186, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B186, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C187" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B187, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B187, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C188" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B188, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B188, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C189" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B189, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B189, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C190" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B190, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B190, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C191" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B191, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B191, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C192" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B192, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B192, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C193" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B193, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B193, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C194" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B194, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B194, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C195" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B195, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B195, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C196" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B196, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B196, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C197" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B197, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B197, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C198" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B198, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B198, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C199" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B199, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B199, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C200" s="63" t="e">
-        <f>INT(INDEX('Dados Consolidados'!$R$2:$R$1000000, MATCH(B200, 'Dados Consolidados'!$A$2:$A$1000000, 0)))</f>
+        <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(B200, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -22134,6 +22394,36 @@
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C200" xr:uid="{8771EE18-3FA3-4C4B-BC9E-74C2FA28D036}"/>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3073" r:id="rId3" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!ExecutarCadastroEspecie">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 

--- a/Cadastros Auto Nextt limpa.xlsx
+++ b/Cadastros Auto Nextt limpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Desktop\dev\automacao-nextt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E69404-236C-4383-B41F-79DEEDC8C6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E52C8C-ACEC-4B6B-B6A3-CDE97C55B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1950" windowWidth="20730" windowHeight="11040" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-1950" windowWidth="20730" windowHeight="11040" tabRatio="764" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nextt" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Cadastre vários itens simultaneamente</t>
   </si>
@@ -220,12 +220,6 @@
     <t>Estrangeira: adquirida no mercado interno, sem similar nacional, constante em lista de Resolução Camex e gás natural;</t>
   </si>
   <si>
-    <t>Para vincular um atributo a outro, basta relacionar as células correspondentes na grade. Por exemplo, a primeira célula de "Cor" deve estar associada à primeira célula de "Tamanho". Atenção: é essencial que a quantidade de cores seja igual à de tamanhos para garantir a correspondência correta.</t>
-  </si>
-  <si>
-    <t>EM TESTES</t>
-  </si>
-  <si>
     <t>Aviso: Os valores disponíveis para "seção" são importados automaticamente do banco de dados.</t>
   </si>
   <si>
@@ -272,6 +266,9 @@
   </si>
   <si>
     <t>Ao terminar, lembre-se de salvar e importar a planilha Excel para o banco de dados.</t>
+  </si>
+  <si>
+    <t>Para vincular um atributo a outro, basta relacionar as células correspondentes na grade. Por exemplo, a primeira célula de "Cor" deve estar associada à primeira célula de "Tamanho". Atenção: é essencial que a quantidade de cores seja igual à de tamanhos para garantir a correspondência correta. Aviso: é obrigatório preencher pelo menos um atributo por item.</t>
   </si>
 </sst>
 </file>
@@ -577,7 +574,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1029,17 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFCFCFCF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FFCFCFCF"/>
@@ -1056,7 +1042,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1300,6 +1286,12 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1381,15 +1373,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1817,70 +1800,70 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="5" spans="1:15" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
     </row>
     <row r="6" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91"/>
+      <c r="O6" s="91"/>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="89"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="92" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1890,11 +1873,11 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1907,13 +1890,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="89"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1926,34 +1909,34 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="89"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="96" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
+      <c r="H10" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="89"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1969,8 +1952,8 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1983,18 +1966,18 @@
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="89"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="92" t="s">
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -2004,11 +1987,11 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2021,60 +2004,60 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="102"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="103" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="105"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="102"/>
+      <c r="C16" s="104"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="102"/>
+      <c r="C17" s="104"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="105"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
@@ -2083,15 +2066,15 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="103"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
@@ -2100,15 +2083,15 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="105"/>
+      <c r="M19" s="105"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
@@ -2117,8 +2100,8 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2134,18 +2117,18 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="97" t="s">
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
       <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2153,8 +2136,8 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2170,8 +2153,8 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
       <c r="G23" s="32" t="s">
         <v>34</v>
       </c>
@@ -2189,8 +2172,8 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2206,17 +2189,17 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="33"/>
-      <c r="H25" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
+      <c r="H25" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
@@ -2225,15 +2208,15 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="100"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="102"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
@@ -2242,15 +2225,15 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="100"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="102"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
@@ -2259,8 +2242,8 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -2276,8 +2259,8 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -2293,8 +2276,8 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -2310,8 +2293,8 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2327,8 +2310,8 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -2344,8 +2327,8 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -2361,8 +2344,8 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -2378,8 +2361,8 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -2395,8 +2378,8 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -2412,8 +2395,8 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2429,8 +2412,8 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2446,8 +2429,8 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2463,8 +2446,8 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2480,8 +2463,8 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -2497,8 +2480,8 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -2514,8 +2497,8 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -2531,8 +2514,8 @@
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -2548,8 +2531,8 @@
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -2565,8 +2548,8 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -2582,8 +2565,8 @@
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -2599,8 +2582,8 @@
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -2616,8 +2599,8 @@
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -2633,8 +2616,8 @@
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
+      <c r="E50" s="91"/>
+      <c r="F50" s="91"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -2687,9 +2670,9 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:AG5946"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomLeft" activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2694,9 @@
     <col min="15" max="15" width="7.7109375" customWidth="1"/>
     <col min="16" max="16" width="43" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="24" width="9.140625" customWidth="1"/>
+    <col min="18" max="20" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="9.140625" customWidth="1"/>
     <col min="25" max="25" width="9" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="7.85546875" hidden="1" customWidth="1"/>
@@ -2720,16 +2705,16 @@
     <col min="30" max="30" width="17.42578125" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="9" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="14" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2742,34 +2727,34 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="114" t="s">
+      <c r="Q1" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="109" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="109"/>
     </row>
     <row r="2" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2782,22 +2767,22 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="112"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
     </row>
     <row r="3" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -2848,18 +2833,18 @@
       <c r="P3" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="117" t="s">
+      <c r="Q3" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="117" t="s">
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="119"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="121"/>
       <c r="Y3" s="79" t="s">
         <v>10</v>
       </c>
@@ -2926,84 +2911,86 @@
       <c r="P4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="124"/>
-      <c r="S4" s="124"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="105" t="s">
+      <c r="Q4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="107"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="109"/>
     </row>
     <row r="5" spans="1:33" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I5" s="38" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="40" t="s">
         <v>65</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>67</v>
       </c>
       <c r="M5" s="39"/>
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
       <c r="P5" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
-      <c r="AA5" s="89"/>
-      <c r="AB5" s="89"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="108"/>
+        <v>66</v>
+      </c>
+      <c r="Q5" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="123"/>
+      <c r="U5" s="123"/>
+      <c r="V5" s="123"/>
+      <c r="W5" s="123"/>
+      <c r="X5" s="124"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="110"/>
     </row>
     <row r="6" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
@@ -3036,14 +3023,14 @@
       <c r="V6" s="83"/>
       <c r="W6" s="85"/>
       <c r="X6" s="87"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
-      <c r="AF6" s="108"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="91"/>
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="110"/>
     </row>
     <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50"/>
@@ -3102,7 +3089,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG7" s="75" t="str">
-        <f>IF(AND(A7&lt;&gt;"",B7&lt;&gt;"",C7&lt;&gt;"",D7&lt;&gt;"",E7&lt;&gt;"",F7&lt;&gt;"",H7&lt;&gt;"",J7&lt;&gt;"",K7&lt;&gt;"",L7&lt;&gt;"",M7&lt;&gt;"",N7&lt;&gt;"",O7&lt;&gt;"",P7&lt;&gt;""),"OK","n/a")</f>
+        <f>IF(AND(A7&lt;&gt;"",B7&lt;&gt;"",C7&lt;&gt;"",D7&lt;&gt;"",E7&lt;&gt;"",F7&lt;&gt;"",H7&lt;&gt;"",J7&lt;&gt;"",K7&lt;&gt;"",L7&lt;&gt;"",M7&lt;&gt;"",N7&lt;&gt;"",O7&lt;&gt;"",P7&lt;&gt;"", Q7&lt;&gt;"",U7&lt;&gt;""),"OK","n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -3163,7 +3150,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG8" s="75" t="str">
-        <f>IF(AND(A8&lt;&gt;"",B8&lt;&gt;"",C8&lt;&gt;"",D8&lt;&gt;"",E8&lt;&gt;"",F8&lt;&gt;"",H8&lt;&gt;"",J8&lt;&gt;"",K8&lt;&gt;"",L8&lt;&gt;"",M8&lt;&gt;"",N8&lt;&gt;"",O8&lt;&gt;"",P8&lt;&gt;""),"OK","n/a")</f>
+        <f t="shared" ref="AG8:AG71" si="0">IF(AND(A8&lt;&gt;"",B8&lt;&gt;"",C8&lt;&gt;"",D8&lt;&gt;"",E8&lt;&gt;"",F8&lt;&gt;"",H8&lt;&gt;"",J8&lt;&gt;"",K8&lt;&gt;"",L8&lt;&gt;"",M8&lt;&gt;"",N8&lt;&gt;"",O8&lt;&gt;"",P8&lt;&gt;"", Q8&lt;&gt;"",U8&lt;&gt;""),"OK","n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -3224,7 +3211,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG9" s="75" t="str">
-        <f t="shared" ref="AG9:AG72" si="0">IF(AND(A9&lt;&gt;"",B9&lt;&gt;"",C9&lt;&gt;"",D9&lt;&gt;"",E9&lt;&gt;"",F9&lt;&gt;"",H9&lt;&gt;"",J9&lt;&gt;"",K9&lt;&gt;"",L9&lt;&gt;"",M9&lt;&gt;"",N9&lt;&gt;"",O9&lt;&gt;"",P9&lt;&gt;""),"OK","n/a")</f>
+        <f t="shared" si="0"/>
         <v>n/a</v>
       </c>
     </row>
@@ -7067,7 +7054,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG72" s="75" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AG72:AG135" si="1">IF(AND(A72&lt;&gt;"",B72&lt;&gt;"",C72&lt;&gt;"",D72&lt;&gt;"",E72&lt;&gt;"",F72&lt;&gt;"",H72&lt;&gt;"",J72&lt;&gt;"",K72&lt;&gt;"",L72&lt;&gt;"",M72&lt;&gt;"",N72&lt;&gt;"",O72&lt;&gt;"",P72&lt;&gt;"", Q72&lt;&gt;"",U72&lt;&gt;""),"OK","n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -7128,7 +7115,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG73" s="75" t="str">
-        <f t="shared" ref="AG73:AG136" si="1">IF(AND(A73&lt;&gt;"",B73&lt;&gt;"",C73&lt;&gt;"",D73&lt;&gt;"",E73&lt;&gt;"",F73&lt;&gt;"",H73&lt;&gt;"",J73&lt;&gt;"",K73&lt;&gt;"",L73&lt;&gt;"",M73&lt;&gt;"",N73&lt;&gt;"",O73&lt;&gt;"",P73&lt;&gt;""),"OK","n/a")</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -10971,7 +10958,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG136" s="75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AG136:AG199" si="2">IF(AND(A136&lt;&gt;"",B136&lt;&gt;"",C136&lt;&gt;"",D136&lt;&gt;"",E136&lt;&gt;"",F136&lt;&gt;"",H136&lt;&gt;"",J136&lt;&gt;"",K136&lt;&gt;"",L136&lt;&gt;"",M136&lt;&gt;"",N136&lt;&gt;"",O136&lt;&gt;"",P136&lt;&gt;"", Q136&lt;&gt;"",U136&lt;&gt;""),"OK","n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -11032,7 +11019,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG137" s="75" t="str">
-        <f t="shared" ref="AG137:AG199" si="2">IF(AND(A137&lt;&gt;"",B137&lt;&gt;"",C137&lt;&gt;"",D137&lt;&gt;"",E137&lt;&gt;"",F137&lt;&gt;"",H137&lt;&gt;"",J137&lt;&gt;"",K137&lt;&gt;"",L137&lt;&gt;"",M137&lt;&gt;"",N137&lt;&gt;"",O137&lt;&gt;"",P137&lt;&gt;""),"OK","n/a")</f>
+        <f t="shared" si="2"/>
         <v>n/a</v>
       </c>
     </row>
@@ -14875,7 +14862,7 @@
         <v>#N/A</v>
       </c>
       <c r="AG200" s="75" t="str">
-        <f>IF(AND(A200&lt;&gt;"",B200&lt;&gt;"",C200&lt;&gt;"",D200&lt;&gt;"",E200&lt;&gt;"",F200&lt;&gt;"",H200&lt;&gt;"",J200&lt;&gt;"",K200&lt;&gt;"",L200&lt;&gt;"",M200&lt;&gt;"",N200&lt;&gt;"",O200&lt;&gt;"",P200&lt;&gt;""),"OK","n/a")</f>
+        <f t="shared" ref="AG200" si="3">IF(AND(A200&lt;&gt;"",B200&lt;&gt;"",C200&lt;&gt;"",D200&lt;&gt;"",E200&lt;&gt;"",F200&lt;&gt;"",H200&lt;&gt;"",J200&lt;&gt;"",K200&lt;&gt;"",L200&lt;&gt;"",M200&lt;&gt;"",N200&lt;&gt;"",O200&lt;&gt;"",P200&lt;&gt;"", Q200&lt;&gt;"",U200&lt;&gt;""),"OK","n/a")</f>
         <v>n/a</v>
       </c>
     </row>
@@ -20684,7 +20671,7 @@
     <row r="5946" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="Y4:AF6"/>
     <mergeCell ref="Y1:AF2"/>
@@ -20693,7 +20680,6 @@
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="Q5:X5"/>
-    <mergeCell ref="Q4:X4"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <dataValidations count="5">
@@ -20772,12 +20758,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -20790,32 +20776,32 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="114" t="s">
+      <c r="Q1" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="109" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="106"/>
-      <c r="AD1" s="115"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="117"/>
     </row>
     <row r="2" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -20828,20 +20814,20 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="128"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="127"/>
     </row>
     <row r="3" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -20912,14 +20898,14 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="130" t="s">
+      <c r="Y4" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
     </row>
     <row r="5" spans="1:30" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -20946,12 +20932,12 @@
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="132"/>
-      <c r="AD5" s="132"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
@@ -21011,7 +20997,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="188.28515625" customWidth="1"/>
-    <col min="2" max="2" width="154.28515625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="154.28515625" style="132" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -21064,7 +21050,7 @@
     </row>
     <row r="5" spans="1:16" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -21151,7 +21137,7 @@
     </row>
     <row r="5" spans="1:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -21185,11 +21171,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="134" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="133" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="46"/>
@@ -21205,11 +21191,11 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="133"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="48"/>
@@ -21240,7 +21226,7 @@
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="107" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="46"/>
@@ -21250,17 +21236,17 @@
     </row>
     <row r="5" spans="1:15" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="135"/>
+        <v>69</v>
+      </c>
+      <c r="C5" s="134"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="135"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="134"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="58" t="e">
@@ -22460,11 +22446,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="134" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="133" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="46"/>
@@ -22479,11 +22465,11 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="134"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="133"/>
       <c r="E2" s="48"/>
       <c r="F2" s="48"/>
       <c r="G2" s="49"/>
@@ -22513,7 +22499,7 @@
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="107" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="46"/>
@@ -22522,17 +22508,17 @@
     </row>
     <row r="5" spans="1:14" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="135"/>
+        <v>58</v>
+      </c>
+      <c r="C5" s="134"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="135"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="134"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="58" t="e">
@@ -23721,7 +23707,7 @@
   <dimension ref="L1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cadastros Auto Nextt limpa.xlsx
+++ b/Cadastros Auto Nextt limpa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Desktop\dev\automacao-nextt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EABC19-2CD4-4C76-8444-562E4D66B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682FD166-6002-4260-8D8D-3282BDEAD1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-1950" windowWidth="20730" windowHeight="11040" tabRatio="764" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-1950" windowWidth="20730" windowHeight="11040" tabRatio="764" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nextt" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
   <si>
     <t>Cadastre vários itens simultaneamente</t>
   </si>
@@ -325,13 +325,7 @@
     <t>...</t>
   </si>
   <si>
-    <t>Endereço &gt; da &gt; operação</t>
-  </si>
-  <si>
     <t>Título da operação</t>
-  </si>
-  <si>
-    <t>Desc. do campo</t>
   </si>
   <si>
     <t>Hyperlink</t>
@@ -340,25 +334,10 @@
     <t>Atributos técnicos</t>
   </si>
   <si>
-    <t>Atributos técnicos:</t>
-  </si>
-  <si>
-    <t>Obrigatório:</t>
-  </si>
-  <si>
     <t>Essas células serão exibidas dinamicamente apenas quando representarem campos obrigatórios definidos pelas regras do banco de dados. Caso não sejam preenchidas, o cadastro por meio desta planilha não será concluído com sucesso.</t>
   </si>
   <si>
-    <t>Descrição do campo:</t>
-  </si>
-  <si>
     <t>Neste espaço, serão exibidas informações relevantes sobre cada campo, como limite de caracteres, menus suspensos, dicas de preenchimento, entre outras orientações.</t>
-  </si>
-  <si>
-    <t>Hyperlink:</t>
-  </si>
-  <si>
-    <t>Alguns campos podem conter hyperlinks que direcionam para outras abas da planilha, como "Cadastro de Marcas", "Cadastro de Seção (Modo Operador)" e "Cadastro de Espécie (Modo Operador)".</t>
   </si>
   <si>
     <t>Campos como 'Seção', 'Fornecedor', 'Descrição', 'Preço', entre outras, são exibidas aqui. Ou seja, todos os valores padrão necessários para o cadastro de produtos, pedidos, marcas, segmentos, seções e espécies.</t>
@@ -370,13 +349,7 @@
     <t>Cadastro 2</t>
   </si>
   <si>
-    <t>Cadastros:</t>
-  </si>
-  <si>
     <t>Nesta seção da planilha, devem ser inseridas as informações conforme os atributos técnicos indicados. Lembre-se de que cada linha representa um cadastro, permitindo uma ampla variedade e quantidade de registros que podem ser realizados diretamente no banco de dados por meio desta planilha.</t>
-  </si>
-  <si>
-    <t>Exemplo de funcionamento</t>
   </si>
   <si>
     <t>Se o produto a ser cadastrado for proveniente de uma migração de sistema, insira o seu código original no campo abaixo.</t>
@@ -415,9 +388,6 @@
     <t>São aceitos apenas valores entre R$ 1,00 e R$ 99.999.999,99.</t>
   </si>
   <si>
-    <t>São aceitos apenas valores entre 1 e 100.</t>
-  </si>
-  <si>
     <t>Máximo 20 caracteres. Aviso: são considerados válidos somente valores numéricos neste campo.</t>
   </si>
   <si>
@@ -426,12 +396,69 @@
   <si>
     <t>Para vincular um atributo a outro, basta relacionar as células correspondentes na grade. Por exemplo, a primeira célula de "Cor" deve estar associada à primeira célula de "Tamanho", como demonstram as cores. Atenção: é essencial que a quantidade de cores seja igual à de tamanhos para garantir a correspondência correta. Aviso: é obrigatório preencher pelo menos um atributo por item.</t>
   </si>
+  <si>
+    <t>Cadastros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Endereço </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> da </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> operação</t>
+    </r>
+  </si>
+  <si>
+    <t>Alguns campos podem conter hyperlinks que direcionam para outras abas da planilha, como "Cadastro de Marcas", "Cadastro de Segmento (Modo Operador)", "Cadastro de Seção (Modo Operador)" e "Cadastro de Espécie (Modo Operador)".</t>
+  </si>
+  <si>
+    <t>São aceitos apenas valores entre 0 e 100.</t>
+  </si>
+  <si>
+    <t>◄ Em desenvolvimento</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,13 +664,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF525252"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF3D3D3D"/>
@@ -669,6 +689,26 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF525252"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF2F2F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -841,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1581,12 +1621,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1864,29 +1944,28 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,6 +1989,57 @@
     <xf numFmtId="1" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -1920,41 +2050,22 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1971,17 +2082,15 @@
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2026,15 +2135,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2102,17 +2202,15 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2122,6 +2220,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2F2F"/>
+      <color rgb="FFFF7979"/>
+      <color rgb="FF525252"/>
       <color rgb="FFDDEBF7"/>
       <color rgb="FFF0F0F0"/>
       <color rgb="FFE2E2E2"/>
@@ -2129,9 +2230,6 @@
       <color rgb="FF85200C"/>
       <color rgb="FF3D3D3D"/>
       <color rgb="FF434343"/>
-      <color rgb="FF525252"/>
-      <color rgb="FFDB5353"/>
-      <color rgb="FFE58383"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2143,10 +2241,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2449,16 +2543,16 @@
   <sheetPr codeName="Planilha1">
     <tabColor theme="4" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="6" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" customWidth="1"/>
@@ -2526,42 +2620,42 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="131"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="124"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="124"/>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
     </row>
     <row r="5" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
     </row>
     <row r="6" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2570,34 +2664,34 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
     </row>
     <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="124"/>
+      <c r="C7" s="129"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123" t="s">
+      <c r="G7" s="130"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2607,13 +2701,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="201"/>
-      <c r="H8" s="124"/>
+      <c r="B8" s="130"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="138"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -2626,15 +2720,15 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="124"/>
+      <c r="C9" s="205"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="124"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="138"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -2647,38 +2741,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="124"/>
+      <c r="C10" s="207" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="124"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="138"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="136" t="s">
+      <c r="J10" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="129"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="124"/>
+      <c r="C11" s="205"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="124"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="138"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -2696,8 +2792,8 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="124"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="138"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -2710,20 +2806,20 @@
     </row>
     <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="124"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="123" t="s">
+      <c r="G13" s="130"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2733,13 +2829,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="201"/>
-      <c r="H14" s="124"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="138"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2752,66 +2848,66 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="126"/>
+      <c r="C15" s="144"/>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="125" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="122"/>
+      <c r="C16" s="142"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="201"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="122"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="201"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
@@ -2822,48 +2918,46 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="201"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="201"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="81" t="s">
-        <v>110</v>
-      </c>
+      <c r="B20" s="126"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
-      <c r="G20" s="201"/>
-      <c r="H20" s="124"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="138"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -2876,34 +2970,36 @@
     </row>
     <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="76"/>
+      <c r="B21" s="81" t="s">
+        <v>47</v>
+      </c>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
-      <c r="G21" s="201"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="137" t="s">
+      <c r="G21" s="130"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="124"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="138"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -2915,16 +3011,14 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
-      <c r="B23" s="127" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="124"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="138"/>
       <c r="I23" s="32" t="s">
         <v>34</v>
       </c>
@@ -2939,15 +3033,15 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="84"/>
-      <c r="B24" s="197" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="198"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="199"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="124"/>
+      <c r="B24" s="146" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="138"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2960,153 +3054,153 @@
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84"/>
-      <c r="B25" s="104" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="106" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="107" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="201"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="139" t="s">
+      <c r="B25" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="153"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
-      <c r="B26" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="96"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="124"/>
+      <c r="B26" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="130"/>
+      <c r="H26" s="138"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="140"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
+      <c r="L26" s="154"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="153"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="84"/>
-      <c r="B27" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="90"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="124"/>
+      <c r="B27" s="110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="138"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="140"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="154"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="153"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="83"/>
-      <c r="B28" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="124"/>
+      <c r="B28" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="138"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="119" t="s">
-        <v>113</v>
-      </c>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
+      <c r="J28" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
+      <c r="O28" s="140"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="83"/>
-      <c r="B29" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="124"/>
+      <c r="B29" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="91"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="138"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="120"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="140"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="83"/>
-      <c r="B30" s="108" t="s">
-        <v>107</v>
+      <c r="B30" s="107" t="s">
+        <v>99</v>
       </c>
       <c r="C30" s="88"/>
-      <c r="D30" s="86"/>
+      <c r="D30" s="92"/>
       <c r="E30" s="88"/>
       <c r="F30" s="89"/>
-      <c r="G30" s="201"/>
-      <c r="H30" s="124"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="138"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="120"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="140"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="83"/>
-      <c r="B31" s="109" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="87"/>
+      <c r="B31" s="107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="89"/>
-      <c r="G31" s="201"/>
-      <c r="H31" s="124"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="138"/>
       <c r="I31" s="100"/>
       <c r="J31" s="100"/>
       <c r="K31" s="100"/>
@@ -3119,13 +3213,15 @@
     </row>
     <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="75"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="124"/>
+      <c r="B32" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="86"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="138"/>
       <c r="I32" s="101"/>
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
@@ -3143,8 +3239,8 @@
       <c r="D33" s="80"/>
       <c r="E33" s="80"/>
       <c r="F33" s="80"/>
-      <c r="G33" s="201"/>
-      <c r="H33" s="124"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="138"/>
       <c r="I33" s="5"/>
       <c r="J33" s="72"/>
       <c r="K33" s="72"/>
@@ -3162,8 +3258,8 @@
       <c r="D34" s="80"/>
       <c r="E34" s="80"/>
       <c r="F34" s="80"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="124"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="138"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -3176,17 +3272,15 @@
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="143" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="142" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="201"/>
-      <c r="H35" s="124"/>
+      <c r="B35" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="138"/>
       <c r="I35" s="32" t="s">
         <v>88</v>
       </c>
@@ -3201,114 +3295,112 @@
     </row>
     <row r="36" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="143"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="201"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
-      <c r="M36" s="145"/>
-      <c r="N36" s="145"/>
-      <c r="O36" s="145"/>
-      <c r="P36" s="146"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="133"/>
+      <c r="P36" s="134"/>
       <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="143"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="144" t="s">
-        <v>114</v>
-      </c>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
+      <c r="B37" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="131"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="132"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="143"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="201"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="131"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="132"/>
+      <c r="L38" s="132"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="201"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
+      <c r="K39" s="132"/>
+      <c r="L39" s="132"/>
+      <c r="M39" s="132"/>
+      <c r="N39" s="132"/>
+      <c r="O39" s="132"/>
+      <c r="P39" s="132"/>
       <c r="Q39" s="5"/>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="142" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="201"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="144"/>
-      <c r="O40" s="144"/>
-      <c r="P40" s="144"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="132"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
       <c r="Q40" s="5"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="143"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="124"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="138"/>
       <c r="I41" s="100"/>
       <c r="J41" s="100"/>
       <c r="K41" s="100"/>
@@ -3321,13 +3413,15 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="143"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="201"/>
-      <c r="H42" s="124"/>
+      <c r="B42" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="130"/>
+      <c r="H42" s="138"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -3340,13 +3434,13 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="143"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="201"/>
-      <c r="H43" s="124"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="138"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -3359,18 +3453,20 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="201"/>
-      <c r="H44" s="124"/>
+      <c r="B44" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="131"/>
+      <c r="D44" s="131"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="131"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="138"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="100"/>
-      <c r="M44" s="100"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
       <c r="N44" s="100"/>
       <c r="O44" s="100"/>
       <c r="P44" s="100"/>
@@ -3378,22 +3474,18 @@
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="143" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="142" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="201"/>
-      <c r="H45" s="124"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="138"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
       <c r="N45" s="100"/>
       <c r="O45" s="100"/>
       <c r="P45" s="100"/>
@@ -3401,18 +3493,18 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="143"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="201"/>
-      <c r="H46" s="124"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="131"/>
+      <c r="F46" s="131"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="138"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="100"/>
-      <c r="M46" s="100"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
       <c r="N46" s="100"/>
       <c r="O46" s="100"/>
       <c r="P46" s="100"/>
@@ -3420,13 +3512,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="143"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="124"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="138"/>
       <c r="I47" s="5"/>
       <c r="J47" s="100"/>
       <c r="K47" s="100"/>
@@ -3439,13 +3531,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="143"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="201"/>
-      <c r="H48" s="124"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="138"/>
       <c r="I48" s="5"/>
       <c r="J48" s="100"/>
       <c r="K48" s="100"/>
@@ -3458,13 +3550,15 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="103"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="103"/>
-      <c r="F49" s="103"/>
-      <c r="G49" s="201"/>
-      <c r="H49" s="124"/>
+      <c r="B49" s="122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="138"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
@@ -3477,17 +3571,13 @@
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="124"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="138"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
@@ -3498,15 +3588,17 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="143"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="201"/>
-      <c r="H51" s="124"/>
+      <c r="B51" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="138"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -3519,13 +3611,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="143"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="201"/>
-      <c r="H52" s="124"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="138"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -3538,13 +3630,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="143"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="201"/>
-      <c r="H53" s="124"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="138"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
@@ -3557,13 +3649,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="201"/>
-      <c r="H54" s="124"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="138"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
@@ -3576,17 +3668,13 @@
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="142" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="201"/>
-      <c r="H55" s="124"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="138"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
@@ -3599,13 +3687,15 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="143"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="201"/>
-      <c r="H56" s="124"/>
+      <c r="B56" s="122" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="138"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
@@ -3618,13 +3708,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="143"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="201"/>
-      <c r="H57" s="124"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="138"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
@@ -3635,15 +3725,17 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="143"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="201"/>
-      <c r="H58" s="124"/>
+      <c r="B58" s="131" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="138"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
@@ -3656,13 +3748,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="143"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="201"/>
-      <c r="H59" s="124"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="138"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
@@ -3675,13 +3767,13 @@
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="201"/>
-      <c r="H60" s="124"/>
+      <c r="B60" s="131"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="138"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
@@ -3694,13 +3786,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="201"/>
-      <c r="H61" s="124"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="138"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
@@ -3713,13 +3805,15 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="201"/>
-      <c r="H62" s="124"/>
+      <c r="B62" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="138"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
@@ -3732,13 +3826,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="201"/>
-      <c r="H63" s="124"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="123"/>
+      <c r="F63" s="123"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="138"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
@@ -3749,15 +3843,17 @@
       <c r="P63" s="5"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="201"/>
-      <c r="H64" s="124"/>
+      <c r="B64" s="131" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="138"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
@@ -3770,13 +3866,13 @@
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="201"/>
-      <c r="H65" s="124"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="138"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
@@ -3789,13 +3885,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="201"/>
-      <c r="H66" s="124"/>
+      <c r="B66" s="131"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="138"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
@@ -3808,13 +3904,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="201"/>
-      <c r="H67" s="124"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="131"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="138"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
@@ -3827,13 +3923,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="201"/>
-      <c r="H68" s="124"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="138"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
@@ -3844,37 +3940,166 @@
       <c r="P68" s="5"/>
       <c r="Q68" s="5"/>
     </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="124"/>
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="124"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="138"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="124"/>
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="124"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="138"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="124"/>
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="124"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="138"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="124"/>
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="124"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="138"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="124"/>
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="138"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="138"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="124"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="138"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="37">
-    <mergeCell ref="C35:F38"/>
-    <mergeCell ref="I37:P40"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C50:F53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="I36:P36"/>
-    <mergeCell ref="C55:F59"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="C45:F48"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="C40:F43"/>
+  <mergeCells count="31">
+    <mergeCell ref="J10:O10"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="J25:O27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="H6:H75"/>
+    <mergeCell ref="G6:G75"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="H6:H68"/>
-    <mergeCell ref="G6:G68"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J10:O10"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="J25:O27"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B64:F68"/>
+    <mergeCell ref="I37:P40"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="B37:F40"/>
+    <mergeCell ref="B44:F47"/>
+    <mergeCell ref="B51:F54"/>
+    <mergeCell ref="B58:F60"/>
     <mergeCell ref="J28:O30"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -3882,8 +4107,6 @@
     <mergeCell ref="I15:O19"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B24:F24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" location="'Cadastro de Produtos'!A1" display="Cadastro de Produtos" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3904,35 +4127,36 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:BJ5946"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="117" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" style="117" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="117" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" style="117" customWidth="1"/>
-    <col min="8" max="8" width="40.7109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="117" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="117" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="117" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" style="117" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="117" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" style="117" customWidth="1"/>
-    <col min="16" max="16" width="43" style="117" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43" style="117" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="117" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="117" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" style="117" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="9.140625" style="117" customWidth="1"/>
-    <col min="29" max="36" width="9.140625" style="117"/>
-    <col min="37" max="37" width="4" style="117" bestFit="1" customWidth="1"/>
-    <col min="38" max="54" width="9.140625" style="117"/>
+    <col min="1" max="1" width="38.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="116" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="116" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="116" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="116" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="116" customWidth="1"/>
+    <col min="8" max="8" width="40.7109375" style="116" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="116" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="116" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="116" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="116" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="116" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" style="116" customWidth="1"/>
+    <col min="16" max="16" width="43" style="116" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43" style="116" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="9.140625" style="116" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="9.140625" style="116" customWidth="1"/>
+    <col min="29" max="36" width="9.140625" style="116"/>
+    <col min="37" max="37" width="4" style="116" bestFit="1" customWidth="1"/>
+    <col min="38" max="54" width="9.140625" style="116"/>
     <col min="55" max="55" width="9" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="7.85546875" hidden="1" customWidth="1"/>
@@ -3945,12 +4169,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -3964,16 +4188,16 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="153" t="s">
+      <c r="R1" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
       <c r="Z1"/>
       <c r="AA1"/>
       <c r="AB1"/>
@@ -4005,12 +4229,12 @@
       <c r="BB1"/>
     </row>
     <row r="2" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -4024,14 +4248,14 @@
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="165"/>
+      <c r="U2" s="165"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="165"/>
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2"/>
@@ -4061,16 +4285,16 @@
       <c r="AZ2"/>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BC2" s="161" t="s">
+      <c r="BC2" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="BD2" s="162"/>
-      <c r="BE2" s="162"/>
-      <c r="BF2" s="162"/>
-      <c r="BG2" s="162"/>
-      <c r="BH2" s="162"/>
-      <c r="BI2" s="162"/>
-      <c r="BJ2" s="163"/>
+      <c r="BD2" s="173"/>
+      <c r="BE2" s="173"/>
+      <c r="BF2" s="173"/>
+      <c r="BG2" s="173"/>
+      <c r="BH2" s="173"/>
+      <c r="BI2" s="173"/>
+      <c r="BJ2" s="174"/>
     </row>
     <row r="3" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -4124,18 +4348,18 @@
       <c r="Q3" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="155" t="s">
+      <c r="R3" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="155" t="s">
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="168"/>
+      <c r="V3" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="157"/>
+      <c r="W3" s="167"/>
+      <c r="X3" s="167"/>
+      <c r="Y3" s="168"/>
       <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3"/>
@@ -4196,17 +4420,17 @@
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="116"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="111"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="115"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37" t="s">
         <v>72</v>
@@ -4249,16 +4473,16 @@
       <c r="AZ4"/>
       <c r="BA4"/>
       <c r="BB4"/>
-      <c r="BC4" s="148" t="s">
+      <c r="BC4" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="BD4" s="149"/>
-      <c r="BE4" s="149"/>
-      <c r="BF4" s="149"/>
-      <c r="BG4" s="149"/>
-      <c r="BH4" s="149"/>
-      <c r="BI4" s="149"/>
-      <c r="BJ4" s="150"/>
+      <c r="BD4" s="160"/>
+      <c r="BE4" s="160"/>
+      <c r="BF4" s="160"/>
+      <c r="BG4" s="160"/>
+      <c r="BH4" s="160"/>
+      <c r="BI4" s="160"/>
+      <c r="BJ4" s="161"/>
     </row>
     <row r="5" spans="1:62" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -4267,61 +4491,61 @@
       <c r="B5" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="155" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="164" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="164" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="164" t="s">
+      <c r="F5" s="155" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="155" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="155" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="164" t="s">
+      <c r="J5" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="164" t="s">
+      <c r="K5" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="164" t="s">
+      <c r="L5" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="164" t="s">
-        <v>115</v>
-      </c>
-      <c r="N5" s="164" t="s">
-        <v>116</v>
-      </c>
-      <c r="O5" s="164" t="s">
-        <v>116</v>
-      </c>
-      <c r="P5" s="164" t="s">
+      <c r="M5" s="155" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="O5" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="P5" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="164" t="s">
-        <v>117</v>
-      </c>
-      <c r="R5" s="158" t="s">
-        <v>119</v>
-      </c>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="159"/>
-      <c r="V5" s="159"/>
-      <c r="W5" s="159"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="160"/>
+      <c r="Q5" s="155" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="170"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
+      <c r="X5" s="170"/>
+      <c r="Y5" s="171"/>
       <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5"/>
@@ -4351,14 +4575,14 @@
       <c r="AZ5"/>
       <c r="BA5"/>
       <c r="BB5"/>
-      <c r="BC5" s="124"/>
-      <c r="BD5" s="124"/>
-      <c r="BE5" s="124"/>
-      <c r="BF5" s="124"/>
-      <c r="BG5" s="124"/>
-      <c r="BH5" s="124"/>
-      <c r="BI5" s="124"/>
-      <c r="BJ5" s="151"/>
+      <c r="BC5" s="129"/>
+      <c r="BD5" s="129"/>
+      <c r="BE5" s="129"/>
+      <c r="BF5" s="129"/>
+      <c r="BG5" s="129"/>
+      <c r="BH5" s="129"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="162"/>
     </row>
     <row r="6" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
@@ -4367,23 +4591,23 @@
       <c r="B6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="166"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="166"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="156"/>
       <c r="I6" s="66"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="165"/>
-      <c r="N6" s="165"/>
-      <c r="O6" s="165"/>
-      <c r="P6" s="165"/>
-      <c r="Q6" s="167"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="157"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="175"/>
       <c r="R6" s="56"/>
       <c r="S6" s="58"/>
       <c r="T6" s="60"/>
@@ -4421,17 +4645,17 @@
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
-      <c r="BC6" s="124"/>
-      <c r="BD6" s="124"/>
-      <c r="BE6" s="124"/>
-      <c r="BF6" s="124"/>
-      <c r="BG6" s="124"/>
-      <c r="BH6" s="124"/>
-      <c r="BI6" s="124"/>
-      <c r="BJ6" s="151"/>
+      <c r="BC6" s="129"/>
+      <c r="BD6" s="129"/>
+      <c r="BE6" s="129"/>
+      <c r="BF6" s="129"/>
+      <c r="BG6" s="129"/>
+      <c r="BH6" s="129"/>
+      <c r="BI6" s="129"/>
+      <c r="BJ6" s="162"/>
     </row>
     <row r="7" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK7" s="118"/>
+      <c r="AK7" s="117"/>
       <c r="BC7" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A7, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4466,7 +4690,7 @@
       </c>
     </row>
     <row r="8" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK8" s="118"/>
+      <c r="AK8" s="117"/>
       <c r="BC8" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A8, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4501,7 +4725,7 @@
       </c>
     </row>
     <row r="9" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK9" s="118"/>
+      <c r="AK9" s="117"/>
       <c r="BC9" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A9, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4536,7 +4760,7 @@
       </c>
     </row>
     <row r="10" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK10" s="118"/>
+      <c r="AK10" s="117"/>
       <c r="BC10" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A10, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4571,7 +4795,7 @@
       </c>
     </row>
     <row r="11" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK11" s="118"/>
+      <c r="AK11" s="117"/>
       <c r="BC11" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A11, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4606,7 +4830,7 @@
       </c>
     </row>
     <row r="12" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK12" s="118"/>
+      <c r="AK12" s="117"/>
       <c r="BC12" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A12, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4641,7 +4865,7 @@
       </c>
     </row>
     <row r="13" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK13" s="118"/>
+      <c r="AK13" s="117"/>
       <c r="BC13" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A13, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4676,7 +4900,7 @@
       </c>
     </row>
     <row r="14" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK14" s="118"/>
+      <c r="AK14" s="117"/>
       <c r="BC14" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A14, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4711,7 +4935,7 @@
       </c>
     </row>
     <row r="15" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK15" s="118"/>
+      <c r="AK15" s="117"/>
       <c r="BC15" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A15, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4746,7 +4970,7 @@
       </c>
     </row>
     <row r="16" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK16" s="118"/>
+      <c r="AK16" s="117"/>
       <c r="BC16" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A16, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4781,7 +5005,7 @@
       </c>
     </row>
     <row r="17" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK17" s="118"/>
+      <c r="AK17" s="117"/>
       <c r="BC17" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A17, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4816,7 +5040,7 @@
       </c>
     </row>
     <row r="18" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK18" s="118"/>
+      <c r="AK18" s="117"/>
       <c r="BC18" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A18, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4851,7 +5075,7 @@
       </c>
     </row>
     <row r="19" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK19" s="118"/>
+      <c r="AK19" s="117"/>
       <c r="BC19" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A19, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4886,7 +5110,7 @@
       </c>
     </row>
     <row r="20" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK20" s="118"/>
+      <c r="AK20" s="117"/>
       <c r="BC20" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A20, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4921,7 +5145,7 @@
       </c>
     </row>
     <row r="21" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK21" s="118"/>
+      <c r="AK21" s="117"/>
       <c r="BC21" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A21, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4956,7 +5180,7 @@
       </c>
     </row>
     <row r="22" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK22" s="118"/>
+      <c r="AK22" s="117"/>
       <c r="BC22" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A22, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -4991,7 +5215,7 @@
       </c>
     </row>
     <row r="23" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK23" s="118"/>
+      <c r="AK23" s="117"/>
       <c r="BC23" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A23, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5026,7 +5250,7 @@
       </c>
     </row>
     <row r="24" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK24" s="118"/>
+      <c r="AK24" s="117"/>
       <c r="BC24" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A24, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5061,7 +5285,7 @@
       </c>
     </row>
     <row r="25" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK25" s="118"/>
+      <c r="AK25" s="117"/>
       <c r="BC25" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A25, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5096,7 +5320,7 @@
       </c>
     </row>
     <row r="26" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK26" s="118"/>
+      <c r="AK26" s="117"/>
       <c r="BC26" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A26, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5131,7 +5355,7 @@
       </c>
     </row>
     <row r="27" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK27" s="118"/>
+      <c r="AK27" s="117"/>
       <c r="BC27" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A27, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5166,7 +5390,7 @@
       </c>
     </row>
     <row r="28" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK28" s="118"/>
+      <c r="AK28" s="117"/>
       <c r="BC28" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A28, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5201,7 +5425,7 @@
       </c>
     </row>
     <row r="29" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK29" s="118"/>
+      <c r="AK29" s="117"/>
       <c r="BC29" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A29, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5236,7 +5460,7 @@
       </c>
     </row>
     <row r="30" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK30" s="118"/>
+      <c r="AK30" s="117"/>
       <c r="BC30" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A30, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5271,7 +5495,7 @@
       </c>
     </row>
     <row r="31" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK31" s="118"/>
+      <c r="AK31" s="117"/>
       <c r="BC31" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A31, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5306,7 +5530,7 @@
       </c>
     </row>
     <row r="32" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK32" s="118"/>
+      <c r="AK32" s="117"/>
       <c r="BC32" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A32, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5341,7 +5565,7 @@
       </c>
     </row>
     <row r="33" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK33" s="118"/>
+      <c r="AK33" s="117"/>
       <c r="BC33" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A33, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5376,7 +5600,7 @@
       </c>
     </row>
     <row r="34" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK34" s="118"/>
+      <c r="AK34" s="117"/>
       <c r="BC34" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A34, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5411,7 +5635,7 @@
       </c>
     </row>
     <row r="35" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK35" s="118"/>
+      <c r="AK35" s="117"/>
       <c r="BC35" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A35, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5446,7 +5670,7 @@
       </c>
     </row>
     <row r="36" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK36" s="118"/>
+      <c r="AK36" s="117"/>
       <c r="BC36" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A36, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5481,7 +5705,7 @@
       </c>
     </row>
     <row r="37" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK37" s="118"/>
+      <c r="AK37" s="117"/>
       <c r="BC37" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A37, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5516,7 +5740,7 @@
       </c>
     </row>
     <row r="38" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK38" s="118"/>
+      <c r="AK38" s="117"/>
       <c r="BC38" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A38, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5551,7 +5775,7 @@
       </c>
     </row>
     <row r="39" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK39" s="118"/>
+      <c r="AK39" s="117"/>
       <c r="BC39" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A39, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5586,7 +5810,7 @@
       </c>
     </row>
     <row r="40" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK40" s="118"/>
+      <c r="AK40" s="117"/>
       <c r="BC40" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A40, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5621,7 +5845,7 @@
       </c>
     </row>
     <row r="41" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK41" s="118"/>
+      <c r="AK41" s="117"/>
       <c r="BC41" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A41, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5656,7 +5880,7 @@
       </c>
     </row>
     <row r="42" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK42" s="118"/>
+      <c r="AK42" s="117"/>
       <c r="BC42" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A42, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5691,7 +5915,7 @@
       </c>
     </row>
     <row r="43" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK43" s="118"/>
+      <c r="AK43" s="117"/>
       <c r="BC43" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A43, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5726,7 +5950,7 @@
       </c>
     </row>
     <row r="44" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK44" s="118"/>
+      <c r="AK44" s="117"/>
       <c r="BC44" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A44, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5761,7 +5985,7 @@
       </c>
     </row>
     <row r="45" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK45" s="118"/>
+      <c r="AK45" s="117"/>
       <c r="BC45" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A45, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5796,7 +6020,7 @@
       </c>
     </row>
     <row r="46" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK46" s="118"/>
+      <c r="AK46" s="117"/>
       <c r="BC46" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A46, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5831,7 +6055,7 @@
       </c>
     </row>
     <row r="47" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK47" s="118"/>
+      <c r="AK47" s="117"/>
       <c r="BC47" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A47, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5866,7 +6090,7 @@
       </c>
     </row>
     <row r="48" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK48" s="118"/>
+      <c r="AK48" s="117"/>
       <c r="BC48" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A48, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5901,7 +6125,7 @@
       </c>
     </row>
     <row r="49" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK49" s="118"/>
+      <c r="AK49" s="117"/>
       <c r="BC49" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A49, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5936,7 +6160,7 @@
       </c>
     </row>
     <row r="50" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK50" s="118"/>
+      <c r="AK50" s="117"/>
       <c r="BC50" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A50, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -5971,7 +6195,7 @@
       </c>
     </row>
     <row r="51" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK51" s="118"/>
+      <c r="AK51" s="117"/>
       <c r="BC51" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A51, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6006,7 +6230,7 @@
       </c>
     </row>
     <row r="52" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK52" s="118"/>
+      <c r="AK52" s="117"/>
       <c r="BC52" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A52, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6041,7 +6265,7 @@
       </c>
     </row>
     <row r="53" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK53" s="118"/>
+      <c r="AK53" s="117"/>
       <c r="BC53" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A53, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6076,7 +6300,7 @@
       </c>
     </row>
     <row r="54" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK54" s="118"/>
+      <c r="AK54" s="117"/>
       <c r="BC54" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A54, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6111,7 +6335,7 @@
       </c>
     </row>
     <row r="55" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK55" s="118"/>
+      <c r="AK55" s="117"/>
       <c r="BC55" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A55, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6146,7 +6370,7 @@
       </c>
     </row>
     <row r="56" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK56" s="118"/>
+      <c r="AK56" s="117"/>
       <c r="BC56" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A56, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6181,7 +6405,7 @@
       </c>
     </row>
     <row r="57" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK57" s="118"/>
+      <c r="AK57" s="117"/>
       <c r="BC57" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A57, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6216,7 +6440,7 @@
       </c>
     </row>
     <row r="58" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK58" s="118"/>
+      <c r="AK58" s="117"/>
       <c r="BC58" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A58, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6251,7 +6475,7 @@
       </c>
     </row>
     <row r="59" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK59" s="118"/>
+      <c r="AK59" s="117"/>
       <c r="BC59" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A59, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6286,7 +6510,7 @@
       </c>
     </row>
     <row r="60" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK60" s="118"/>
+      <c r="AK60" s="117"/>
       <c r="BC60" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A60, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6321,7 +6545,7 @@
       </c>
     </row>
     <row r="61" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK61" s="118"/>
+      <c r="AK61" s="117"/>
       <c r="BC61" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A61, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6356,7 +6580,7 @@
       </c>
     </row>
     <row r="62" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK62" s="118"/>
+      <c r="AK62" s="117"/>
       <c r="BC62" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A62, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6391,7 +6615,7 @@
       </c>
     </row>
     <row r="63" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK63" s="118"/>
+      <c r="AK63" s="117"/>
       <c r="BC63" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A63, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6426,7 +6650,7 @@
       </c>
     </row>
     <row r="64" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK64" s="118"/>
+      <c r="AK64" s="117"/>
       <c r="BC64" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A64, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6461,7 +6685,7 @@
       </c>
     </row>
     <row r="65" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK65" s="118"/>
+      <c r="AK65" s="117"/>
       <c r="BC65" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A65, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6496,7 +6720,7 @@
       </c>
     </row>
     <row r="66" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK66" s="118"/>
+      <c r="AK66" s="117"/>
       <c r="BC66" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A66, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6531,7 +6755,7 @@
       </c>
     </row>
     <row r="67" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK67" s="118"/>
+      <c r="AK67" s="117"/>
       <c r="BC67" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A67, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6566,7 +6790,7 @@
       </c>
     </row>
     <row r="68" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK68" s="118"/>
+      <c r="AK68" s="117"/>
       <c r="BC68" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A68, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6601,7 +6825,7 @@
       </c>
     </row>
     <row r="69" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK69" s="118"/>
+      <c r="AK69" s="117"/>
       <c r="BC69" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A69, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6636,7 +6860,7 @@
       </c>
     </row>
     <row r="70" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK70" s="118"/>
+      <c r="AK70" s="117"/>
       <c r="BC70" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A70, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6671,7 +6895,7 @@
       </c>
     </row>
     <row r="71" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK71" s="118"/>
+      <c r="AK71" s="117"/>
       <c r="BC71" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A71, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6706,7 +6930,7 @@
       </c>
     </row>
     <row r="72" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK72" s="118"/>
+      <c r="AK72" s="117"/>
       <c r="BC72" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A72, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6741,7 +6965,7 @@
       </c>
     </row>
     <row r="73" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK73" s="118"/>
+      <c r="AK73" s="117"/>
       <c r="BC73" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A73, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6776,7 +7000,7 @@
       </c>
     </row>
     <row r="74" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK74" s="118"/>
+      <c r="AK74" s="117"/>
       <c r="BC74" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A74, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6811,7 +7035,7 @@
       </c>
     </row>
     <row r="75" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK75" s="118"/>
+      <c r="AK75" s="117"/>
       <c r="BC75" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A75, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6846,7 +7070,7 @@
       </c>
     </row>
     <row r="76" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK76" s="118"/>
+      <c r="AK76" s="117"/>
       <c r="BC76" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A76, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6881,7 +7105,7 @@
       </c>
     </row>
     <row r="77" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK77" s="118"/>
+      <c r="AK77" s="117"/>
       <c r="BC77" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A77, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6916,7 +7140,7 @@
       </c>
     </row>
     <row r="78" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK78" s="118"/>
+      <c r="AK78" s="117"/>
       <c r="BC78" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A78, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6951,7 +7175,7 @@
       </c>
     </row>
     <row r="79" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK79" s="118"/>
+      <c r="AK79" s="117"/>
       <c r="BC79" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A79, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -6986,7 +7210,7 @@
       </c>
     </row>
     <row r="80" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK80" s="118"/>
+      <c r="AK80" s="117"/>
       <c r="BC80" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A80, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7021,7 +7245,7 @@
       </c>
     </row>
     <row r="81" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK81" s="118"/>
+      <c r="AK81" s="117"/>
       <c r="BC81" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A81, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7056,7 +7280,7 @@
       </c>
     </row>
     <row r="82" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK82" s="118"/>
+      <c r="AK82" s="117"/>
       <c r="BC82" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A82, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7091,7 +7315,7 @@
       </c>
     </row>
     <row r="83" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK83" s="118"/>
+      <c r="AK83" s="117"/>
       <c r="BC83" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A83, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7126,7 +7350,7 @@
       </c>
     </row>
     <row r="84" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK84" s="118"/>
+      <c r="AK84" s="117"/>
       <c r="BC84" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A84, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7161,7 +7385,7 @@
       </c>
     </row>
     <row r="85" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK85" s="118"/>
+      <c r="AK85" s="117"/>
       <c r="BC85" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A85, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7196,7 +7420,7 @@
       </c>
     </row>
     <row r="86" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK86" s="118"/>
+      <c r="AK86" s="117"/>
       <c r="BC86" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A86, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7231,7 +7455,7 @@
       </c>
     </row>
     <row r="87" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK87" s="118"/>
+      <c r="AK87" s="117"/>
       <c r="BC87" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A87, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7266,7 +7490,7 @@
       </c>
     </row>
     <row r="88" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK88" s="118"/>
+      <c r="AK88" s="117"/>
       <c r="BC88" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A88, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7301,7 +7525,7 @@
       </c>
     </row>
     <row r="89" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK89" s="118"/>
+      <c r="AK89" s="117"/>
       <c r="BC89" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A89, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7336,7 +7560,7 @@
       </c>
     </row>
     <row r="90" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK90" s="118"/>
+      <c r="AK90" s="117"/>
       <c r="BC90" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A90, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7371,7 +7595,7 @@
       </c>
     </row>
     <row r="91" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK91" s="118"/>
+      <c r="AK91" s="117"/>
       <c r="BC91" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A91, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7406,7 +7630,7 @@
       </c>
     </row>
     <row r="92" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK92" s="118"/>
+      <c r="AK92" s="117"/>
       <c r="BC92" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A92, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7441,7 +7665,7 @@
       </c>
     </row>
     <row r="93" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK93" s="118"/>
+      <c r="AK93" s="117"/>
       <c r="BC93" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A93, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7476,7 +7700,7 @@
       </c>
     </row>
     <row r="94" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK94" s="118"/>
+      <c r="AK94" s="117"/>
       <c r="BC94" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A94, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7511,7 +7735,7 @@
       </c>
     </row>
     <row r="95" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK95" s="118"/>
+      <c r="AK95" s="117"/>
       <c r="BC95" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A95, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7546,7 +7770,7 @@
       </c>
     </row>
     <row r="96" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK96" s="118"/>
+      <c r="AK96" s="117"/>
       <c r="BC96" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A96, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7581,7 +7805,7 @@
       </c>
     </row>
     <row r="97" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK97" s="118"/>
+      <c r="AK97" s="117"/>
       <c r="BC97" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A97, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7616,7 +7840,7 @@
       </c>
     </row>
     <row r="98" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK98" s="118"/>
+      <c r="AK98" s="117"/>
       <c r="BC98" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A98, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7651,7 +7875,7 @@
       </c>
     </row>
     <row r="99" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK99" s="118"/>
+      <c r="AK99" s="117"/>
       <c r="BC99" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A99, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7686,7 +7910,7 @@
       </c>
     </row>
     <row r="100" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK100" s="118"/>
+      <c r="AK100" s="117"/>
       <c r="BC100" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A100, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7721,7 +7945,7 @@
       </c>
     </row>
     <row r="101" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK101" s="118"/>
+      <c r="AK101" s="117"/>
       <c r="BC101" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A101, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7756,7 +7980,7 @@
       </c>
     </row>
     <row r="102" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK102" s="118"/>
+      <c r="AK102" s="117"/>
       <c r="BC102" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A102, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7791,7 +8015,7 @@
       </c>
     </row>
     <row r="103" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK103" s="118"/>
+      <c r="AK103" s="117"/>
       <c r="BC103" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A103, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7826,7 +8050,7 @@
       </c>
     </row>
     <row r="104" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK104" s="118"/>
+      <c r="AK104" s="117"/>
       <c r="BC104" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A104, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7861,7 +8085,7 @@
       </c>
     </row>
     <row r="105" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK105" s="118"/>
+      <c r="AK105" s="117"/>
       <c r="BC105" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A105, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7896,7 +8120,7 @@
       </c>
     </row>
     <row r="106" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK106" s="118"/>
+      <c r="AK106" s="117"/>
       <c r="BC106" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A106, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7931,7 +8155,7 @@
       </c>
     </row>
     <row r="107" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK107" s="118"/>
+      <c r="AK107" s="117"/>
       <c r="BC107" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A107, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -7966,7 +8190,7 @@
       </c>
     </row>
     <row r="108" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK108" s="118"/>
+      <c r="AK108" s="117"/>
       <c r="BC108" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A108, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8001,7 +8225,7 @@
       </c>
     </row>
     <row r="109" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK109" s="118"/>
+      <c r="AK109" s="117"/>
       <c r="BC109" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A109, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8036,7 +8260,7 @@
       </c>
     </row>
     <row r="110" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK110" s="118"/>
+      <c r="AK110" s="117"/>
       <c r="BC110" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A110, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8071,7 +8295,7 @@
       </c>
     </row>
     <row r="111" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK111" s="118"/>
+      <c r="AK111" s="117"/>
       <c r="BC111" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A111, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8106,7 +8330,7 @@
       </c>
     </row>
     <row r="112" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK112" s="118"/>
+      <c r="AK112" s="117"/>
       <c r="BC112" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A112, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8141,7 +8365,7 @@
       </c>
     </row>
     <row r="113" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK113" s="118"/>
+      <c r="AK113" s="117"/>
       <c r="BC113" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A113, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8176,7 +8400,7 @@
       </c>
     </row>
     <row r="114" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK114" s="118"/>
+      <c r="AK114" s="117"/>
       <c r="BC114" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A114, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8211,7 +8435,7 @@
       </c>
     </row>
     <row r="115" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK115" s="118"/>
+      <c r="AK115" s="117"/>
       <c r="BC115" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A115, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8246,7 +8470,7 @@
       </c>
     </row>
     <row r="116" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK116" s="118"/>
+      <c r="AK116" s="117"/>
       <c r="BC116" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A116, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8281,7 +8505,7 @@
       </c>
     </row>
     <row r="117" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK117" s="118"/>
+      <c r="AK117" s="117"/>
       <c r="BC117" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A117, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8316,7 +8540,7 @@
       </c>
     </row>
     <row r="118" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK118" s="118"/>
+      <c r="AK118" s="117"/>
       <c r="BC118" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A118, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8351,7 +8575,7 @@
       </c>
     </row>
     <row r="119" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK119" s="118"/>
+      <c r="AK119" s="117"/>
       <c r="BC119" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A119, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8386,7 +8610,7 @@
       </c>
     </row>
     <row r="120" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK120" s="118"/>
+      <c r="AK120" s="117"/>
       <c r="BC120" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A120, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8421,7 +8645,7 @@
       </c>
     </row>
     <row r="121" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK121" s="118"/>
+      <c r="AK121" s="117"/>
       <c r="BC121" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A121, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8456,7 +8680,7 @@
       </c>
     </row>
     <row r="122" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK122" s="118"/>
+      <c r="AK122" s="117"/>
       <c r="BC122" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A122, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8491,7 +8715,7 @@
       </c>
     </row>
     <row r="123" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK123" s="118"/>
+      <c r="AK123" s="117"/>
       <c r="BC123" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A123, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8526,7 +8750,7 @@
       </c>
     </row>
     <row r="124" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK124" s="118"/>
+      <c r="AK124" s="117"/>
       <c r="BC124" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A124, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8561,7 +8785,7 @@
       </c>
     </row>
     <row r="125" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK125" s="118"/>
+      <c r="AK125" s="117"/>
       <c r="BC125" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A125, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8596,7 +8820,7 @@
       </c>
     </row>
     <row r="126" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK126" s="118"/>
+      <c r="AK126" s="117"/>
       <c r="BC126" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A126, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8631,7 +8855,7 @@
       </c>
     </row>
     <row r="127" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK127" s="118"/>
+      <c r="AK127" s="117"/>
       <c r="BC127" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A127, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8666,7 +8890,7 @@
       </c>
     </row>
     <row r="128" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK128" s="118"/>
+      <c r="AK128" s="117"/>
       <c r="BC128" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A128, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8701,7 +8925,7 @@
       </c>
     </row>
     <row r="129" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK129" s="118"/>
+      <c r="AK129" s="117"/>
       <c r="BC129" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A129, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8736,7 +8960,7 @@
       </c>
     </row>
     <row r="130" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK130" s="118"/>
+      <c r="AK130" s="117"/>
       <c r="BC130" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A130, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8771,7 +8995,7 @@
       </c>
     </row>
     <row r="131" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK131" s="118"/>
+      <c r="AK131" s="117"/>
       <c r="BC131" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A131, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8806,7 +9030,7 @@
       </c>
     </row>
     <row r="132" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK132" s="118"/>
+      <c r="AK132" s="117"/>
       <c r="BC132" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A132, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8841,7 +9065,7 @@
       </c>
     </row>
     <row r="133" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK133" s="118"/>
+      <c r="AK133" s="117"/>
       <c r="BC133" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A133, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8876,7 +9100,7 @@
       </c>
     </row>
     <row r="134" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK134" s="118"/>
+      <c r="AK134" s="117"/>
       <c r="BC134" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A134, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8911,7 +9135,7 @@
       </c>
     </row>
     <row r="135" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK135" s="118"/>
+      <c r="AK135" s="117"/>
       <c r="BC135" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A135, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8946,7 +9170,7 @@
       </c>
     </row>
     <row r="136" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK136" s="118"/>
+      <c r="AK136" s="117"/>
       <c r="BC136" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A136, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -8981,7 +9205,7 @@
       </c>
     </row>
     <row r="137" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK137" s="118"/>
+      <c r="AK137" s="117"/>
       <c r="BC137" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A137, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9016,7 +9240,7 @@
       </c>
     </row>
     <row r="138" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK138" s="118"/>
+      <c r="AK138" s="117"/>
       <c r="BC138" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A138, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9051,7 +9275,7 @@
       </c>
     </row>
     <row r="139" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK139" s="118"/>
+      <c r="AK139" s="117"/>
       <c r="BC139" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A139, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9086,7 +9310,7 @@
       </c>
     </row>
     <row r="140" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK140" s="118"/>
+      <c r="AK140" s="117"/>
       <c r="BC140" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A140, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9121,7 +9345,7 @@
       </c>
     </row>
     <row r="141" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK141" s="118"/>
+      <c r="AK141" s="117"/>
       <c r="BC141" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A141, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9156,7 +9380,7 @@
       </c>
     </row>
     <row r="142" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK142" s="118"/>
+      <c r="AK142" s="117"/>
       <c r="BC142" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A142, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9191,7 +9415,7 @@
       </c>
     </row>
     <row r="143" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK143" s="118"/>
+      <c r="AK143" s="117"/>
       <c r="BC143" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A143, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9226,7 +9450,7 @@
       </c>
     </row>
     <row r="144" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK144" s="118"/>
+      <c r="AK144" s="117"/>
       <c r="BC144" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A144, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9261,7 +9485,7 @@
       </c>
     </row>
     <row r="145" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK145" s="118"/>
+      <c r="AK145" s="117"/>
       <c r="BC145" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A145, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9296,7 +9520,7 @@
       </c>
     </row>
     <row r="146" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK146" s="118"/>
+      <c r="AK146" s="117"/>
       <c r="BC146" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A146, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9331,7 +9555,7 @@
       </c>
     </row>
     <row r="147" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK147" s="118"/>
+      <c r="AK147" s="117"/>
       <c r="BC147" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A147, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9366,7 +9590,7 @@
       </c>
     </row>
     <row r="148" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK148" s="118"/>
+      <c r="AK148" s="117"/>
       <c r="BC148" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A148, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9401,7 +9625,7 @@
       </c>
     </row>
     <row r="149" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK149" s="118"/>
+      <c r="AK149" s="117"/>
       <c r="BC149" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A149, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9436,7 +9660,7 @@
       </c>
     </row>
     <row r="150" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK150" s="118"/>
+      <c r="AK150" s="117"/>
       <c r="BC150" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A150, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9471,7 +9695,7 @@
       </c>
     </row>
     <row r="151" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK151" s="118"/>
+      <c r="AK151" s="117"/>
       <c r="BC151" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A151, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9506,7 +9730,7 @@
       </c>
     </row>
     <row r="152" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK152" s="118"/>
+      <c r="AK152" s="117"/>
       <c r="BC152" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A152, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9541,7 +9765,7 @@
       </c>
     </row>
     <row r="153" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK153" s="118"/>
+      <c r="AK153" s="117"/>
       <c r="BC153" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A153, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9576,7 +9800,7 @@
       </c>
     </row>
     <row r="154" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK154" s="118"/>
+      <c r="AK154" s="117"/>
       <c r="BC154" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A154, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9611,7 +9835,7 @@
       </c>
     </row>
     <row r="155" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK155" s="118"/>
+      <c r="AK155" s="117"/>
       <c r="BC155" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A155, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9646,7 +9870,7 @@
       </c>
     </row>
     <row r="156" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK156" s="118"/>
+      <c r="AK156" s="117"/>
       <c r="BC156" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A156, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9681,7 +9905,7 @@
       </c>
     </row>
     <row r="157" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK157" s="118"/>
+      <c r="AK157" s="117"/>
       <c r="BC157" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A157, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9716,7 +9940,7 @@
       </c>
     </row>
     <row r="158" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK158" s="118"/>
+      <c r="AK158" s="117"/>
       <c r="BC158" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A158, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9751,7 +9975,7 @@
       </c>
     </row>
     <row r="159" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK159" s="118"/>
+      <c r="AK159" s="117"/>
       <c r="BC159" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A159, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9786,7 +10010,7 @@
       </c>
     </row>
     <row r="160" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK160" s="118"/>
+      <c r="AK160" s="117"/>
       <c r="BC160" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A160, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9821,7 +10045,7 @@
       </c>
     </row>
     <row r="161" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK161" s="118"/>
+      <c r="AK161" s="117"/>
       <c r="BC161" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A161, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9856,7 +10080,7 @@
       </c>
     </row>
     <row r="162" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK162" s="118"/>
+      <c r="AK162" s="117"/>
       <c r="BC162" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A162, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9891,7 +10115,7 @@
       </c>
     </row>
     <row r="163" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK163" s="118"/>
+      <c r="AK163" s="117"/>
       <c r="BC163" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A163, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9926,7 +10150,7 @@
       </c>
     </row>
     <row r="164" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK164" s="118"/>
+      <c r="AK164" s="117"/>
       <c r="BC164" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A164, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9961,7 +10185,7 @@
       </c>
     </row>
     <row r="165" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK165" s="118"/>
+      <c r="AK165" s="117"/>
       <c r="BC165" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A165, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -9996,7 +10220,7 @@
       </c>
     </row>
     <row r="166" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK166" s="118"/>
+      <c r="AK166" s="117"/>
       <c r="BC166" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A166, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10031,7 +10255,7 @@
       </c>
     </row>
     <row r="167" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK167" s="118"/>
+      <c r="AK167" s="117"/>
       <c r="BC167" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A167, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10066,7 +10290,7 @@
       </c>
     </row>
     <row r="168" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK168" s="118"/>
+      <c r="AK168" s="117"/>
       <c r="BC168" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A168, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10101,7 +10325,7 @@
       </c>
     </row>
     <row r="169" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK169" s="118"/>
+      <c r="AK169" s="117"/>
       <c r="BC169" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A169, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10136,7 +10360,7 @@
       </c>
     </row>
     <row r="170" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK170" s="118"/>
+      <c r="AK170" s="117"/>
       <c r="BC170" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A170, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10171,7 +10395,7 @@
       </c>
     </row>
     <row r="171" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK171" s="118"/>
+      <c r="AK171" s="117"/>
       <c r="BC171" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A171, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10206,7 +10430,7 @@
       </c>
     </row>
     <row r="172" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK172" s="118"/>
+      <c r="AK172" s="117"/>
       <c r="BC172" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A172, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10241,7 +10465,7 @@
       </c>
     </row>
     <row r="173" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK173" s="118"/>
+      <c r="AK173" s="117"/>
       <c r="BC173" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A173, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10276,7 +10500,7 @@
       </c>
     </row>
     <row r="174" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK174" s="118"/>
+      <c r="AK174" s="117"/>
       <c r="BC174" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A174, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10311,7 +10535,7 @@
       </c>
     </row>
     <row r="175" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK175" s="118"/>
+      <c r="AK175" s="117"/>
       <c r="BC175" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A175, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10346,7 +10570,7 @@
       </c>
     </row>
     <row r="176" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK176" s="118"/>
+      <c r="AK176" s="117"/>
       <c r="BC176" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A176, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10381,7 +10605,7 @@
       </c>
     </row>
     <row r="177" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK177" s="118"/>
+      <c r="AK177" s="117"/>
       <c r="BC177" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A177, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10416,7 +10640,7 @@
       </c>
     </row>
     <row r="178" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK178" s="118"/>
+      <c r="AK178" s="117"/>
       <c r="BC178" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A178, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10451,7 +10675,7 @@
       </c>
     </row>
     <row r="179" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK179" s="118"/>
+      <c r="AK179" s="117"/>
       <c r="BC179" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A179, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10486,7 +10710,7 @@
       </c>
     </row>
     <row r="180" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK180" s="118"/>
+      <c r="AK180" s="117"/>
       <c r="BC180" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A180, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10521,7 +10745,7 @@
       </c>
     </row>
     <row r="181" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK181" s="118"/>
+      <c r="AK181" s="117"/>
       <c r="BC181" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A181, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10556,7 +10780,7 @@
       </c>
     </row>
     <row r="182" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK182" s="118"/>
+      <c r="AK182" s="117"/>
       <c r="BC182" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A182, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10591,7 +10815,7 @@
       </c>
     </row>
     <row r="183" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK183" s="118"/>
+      <c r="AK183" s="117"/>
       <c r="BC183" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A183, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10626,7 +10850,7 @@
       </c>
     </row>
     <row r="184" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK184" s="118"/>
+      <c r="AK184" s="117"/>
       <c r="BC184" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A184, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10661,7 +10885,7 @@
       </c>
     </row>
     <row r="185" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK185" s="118"/>
+      <c r="AK185" s="117"/>
       <c r="BC185" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A185, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10696,7 +10920,7 @@
       </c>
     </row>
     <row r="186" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK186" s="118"/>
+      <c r="AK186" s="117"/>
       <c r="BC186" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A186, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10731,7 +10955,7 @@
       </c>
     </row>
     <row r="187" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK187" s="118"/>
+      <c r="AK187" s="117"/>
       <c r="BC187" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A187, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10766,7 +10990,7 @@
       </c>
     </row>
     <row r="188" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK188" s="118"/>
+      <c r="AK188" s="117"/>
       <c r="BC188" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A188, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10801,7 +11025,7 @@
       </c>
     </row>
     <row r="189" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK189" s="118"/>
+      <c r="AK189" s="117"/>
       <c r="BC189" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A189, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10836,7 +11060,7 @@
       </c>
     </row>
     <row r="190" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK190" s="118"/>
+      <c r="AK190" s="117"/>
       <c r="BC190" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A190, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10871,7 +11095,7 @@
       </c>
     </row>
     <row r="191" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK191" s="118"/>
+      <c r="AK191" s="117"/>
       <c r="BC191" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A191, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10906,7 +11130,7 @@
       </c>
     </row>
     <row r="192" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK192" s="118"/>
+      <c r="AK192" s="117"/>
       <c r="BC192" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A192, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10941,7 +11165,7 @@
       </c>
     </row>
     <row r="193" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK193" s="118"/>
+      <c r="AK193" s="117"/>
       <c r="BC193" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A193, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -10976,7 +11200,7 @@
       </c>
     </row>
     <row r="194" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK194" s="118"/>
+      <c r="AK194" s="117"/>
       <c r="BC194" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A194, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -11011,7 +11235,7 @@
       </c>
     </row>
     <row r="195" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK195" s="118"/>
+      <c r="AK195" s="117"/>
       <c r="BC195" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A195, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -11046,7 +11270,7 @@
       </c>
     </row>
     <row r="196" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK196" s="118"/>
+      <c r="AK196" s="117"/>
       <c r="BC196" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A196, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -11081,7 +11305,7 @@
       </c>
     </row>
     <row r="197" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK197" s="118"/>
+      <c r="AK197" s="117"/>
       <c r="BC197" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A197, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -11116,7 +11340,7 @@
       </c>
     </row>
     <row r="198" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK198" s="118"/>
+      <c r="AK198" s="117"/>
       <c r="BC198" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A198, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -11151,7 +11375,7 @@
       </c>
     </row>
     <row r="199" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK199" s="118"/>
+      <c r="AK199" s="117"/>
       <c r="BC199" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A199, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -11186,7 +11410,7 @@
       </c>
     </row>
     <row r="200" spans="37:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AK200" s="118"/>
+      <c r="AK200" s="117"/>
       <c r="BC200" s="51" t="e">
         <f>INT(INDEX('Dados Consolidados'!$R$1:$R$1000000, MATCH(A200, 'Dados Consolidados'!$A$1:$A$1000000, 0)))</f>
         <v>#N/A</v>
@@ -17002,11 +17226,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="BC4:BJ6"/>
     <mergeCell ref="A2:D2"/>
@@ -17023,6 +17242,11 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
@@ -17042,7 +17266,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17069,12 +17293,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -17087,52 +17311,52 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="191" t="s">
+      <c r="Q1" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="185" t="s">
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="171" t="s">
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="172"/>
-      <c r="AI1" s="172"/>
-      <c r="AJ1" s="172"/>
-      <c r="AK1" s="172"/>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="177" t="s">
+      <c r="AF1" s="180"/>
+      <c r="AG1" s="180"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="180"/>
+      <c r="AJ1" s="180"/>
+      <c r="AK1" s="180"/>
+      <c r="AL1" s="181"/>
+      <c r="AM1" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="AN1" s="178"/>
-      <c r="AO1" s="178"/>
-      <c r="AP1" s="178"/>
-      <c r="AQ1" s="178"/>
-      <c r="AR1" s="178"/>
-      <c r="AS1" s="178"/>
-      <c r="AT1" s="179"/>
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="186"/>
+      <c r="AP1" s="186"/>
+      <c r="AQ1" s="186"/>
+      <c r="AR1" s="186"/>
+      <c r="AS1" s="186"/>
+      <c r="AT1" s="187"/>
     </row>
     <row r="2" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -17145,36 +17369,36 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="175"/>
-      <c r="AG2" s="175"/>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="175"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="175"/>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="180"/>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="181"/>
-      <c r="AP2" s="181"/>
-      <c r="AQ2" s="181"/>
-      <c r="AR2" s="181"/>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="182"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="196"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="196"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="183"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="183"/>
+      <c r="AJ2" s="183"/>
+      <c r="AK2" s="183"/>
+      <c r="AL2" s="184"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="189"/>
+      <c r="AO2" s="189"/>
+      <c r="AP2" s="189"/>
+      <c r="AQ2" s="189"/>
+      <c r="AR2" s="189"/>
+      <c r="AS2" s="189"/>
+      <c r="AT2" s="190"/>
     </row>
     <row r="3" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -17287,14 +17511,14 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="168" t="s">
+      <c r="Y4" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="169"/>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="169"/>
-      <c r="AD4" s="169"/>
+      <c r="Z4" s="177"/>
+      <c r="AA4" s="177"/>
+      <c r="AB4" s="177"/>
+      <c r="AC4" s="177"/>
+      <c r="AD4" s="177"/>
     </row>
     <row r="5" spans="1:46" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
@@ -17321,12 +17545,12 @@
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
+      <c r="Y5" s="178"/>
+      <c r="Z5" s="178"/>
+      <c r="AA5" s="178"/>
+      <c r="AB5" s="178"/>
+      <c r="AC5" s="178"/>
+      <c r="AD5" s="178"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
@@ -17389,7 +17613,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="188.28515625" customWidth="1"/>
-    <col min="2" max="2" width="154.28515625" style="192" customWidth="1"/>
+    <col min="2" max="2" width="154.28515625" style="200" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -17563,11 +17787,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="193" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="201" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="40"/>
@@ -17583,11 +17807,11 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="193"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="201"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="42"/>
@@ -17618,7 +17842,7 @@
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="159" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="40"/>
@@ -17633,12 +17857,12 @@
       <c r="B5" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="194"/>
+      <c r="C5" s="202"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="194"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="202"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C7" s="44" t="e">
@@ -18838,11 +19062,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="193" t="s">
+      <c r="B1" s="191"/>
+      <c r="C1" s="201" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="40"/>
@@ -18857,11 +19081,11 @@
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="193"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="201"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="43"/>
@@ -18891,7 +19115,7 @@
       <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="159" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="40"/>
@@ -18905,12 +19129,12 @@
       <c r="B5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="194"/>
+      <c r="C5" s="202"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="195"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="194"/>
+      <c r="A6" s="203"/>
+      <c r="B6" s="204"/>
+      <c r="C6" s="202"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="44" t="e">
